--- a/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>Serie</t>
   </si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z331"/>
+  <dimension ref="A1:Z332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22135,6 +22138,65 @@
         <v>72</v>
       </c>
     </row>
+    <row r="332" spans="1:26">
+      <c r="A332" t="s">
+        <v>356</v>
+      </c>
+      <c r="B332">
+        <v>17451722</v>
+      </c>
+      <c r="C332">
+        <v>9133808</v>
+      </c>
+      <c r="D332">
+        <v>6877205</v>
+      </c>
+      <c r="E332">
+        <v>812514</v>
+      </c>
+      <c r="F332">
+        <v>264481</v>
+      </c>
+      <c r="G332">
+        <v>358755</v>
+      </c>
+      <c r="H332">
+        <v>4706</v>
+      </c>
+      <c r="L332">
+        <v>251</v>
+      </c>
+      <c r="M332">
+        <v>528238</v>
+      </c>
+      <c r="N332">
+        <v>348</v>
+      </c>
+      <c r="O332">
+        <v>99</v>
+      </c>
+      <c r="P332">
+        <v>251507</v>
+      </c>
+      <c r="Q332">
+        <v>165569</v>
+      </c>
+      <c r="R332">
+        <v>32668</v>
+      </c>
+      <c r="S332">
+        <v>62571</v>
+      </c>
+      <c r="T332">
+        <v>10712</v>
+      </c>
+      <c r="U332">
+        <v>4691</v>
+      </c>
+      <c r="Z332">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>Serie</t>
   </si>
@@ -1085,6 +1085,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z332"/>
+  <dimension ref="A1:Z333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22197,6 +22200,65 @@
         <v>72</v>
       </c>
     </row>
+    <row r="333" spans="1:26">
+      <c r="A333" t="s">
+        <v>357</v>
+      </c>
+      <c r="B333">
+        <v>17613945</v>
+      </c>
+      <c r="C333">
+        <v>9231271</v>
+      </c>
+      <c r="D333">
+        <v>6951329</v>
+      </c>
+      <c r="E333">
+        <v>810421</v>
+      </c>
+      <c r="F333">
+        <v>259786</v>
+      </c>
+      <c r="G333">
+        <v>356180</v>
+      </c>
+      <c r="H333">
+        <v>4706</v>
+      </c>
+      <c r="L333">
+        <v>251</v>
+      </c>
+      <c r="M333">
+        <v>531025</v>
+      </c>
+      <c r="N333">
+        <v>348</v>
+      </c>
+      <c r="O333">
+        <v>99</v>
+      </c>
+      <c r="P333">
+        <v>253235</v>
+      </c>
+      <c r="Q333">
+        <v>166626</v>
+      </c>
+      <c r="R333">
+        <v>32669</v>
+      </c>
+      <c r="S333">
+        <v>62572</v>
+      </c>
+      <c r="T333">
+        <v>10712</v>
+      </c>
+      <c r="U333">
+        <v>4691</v>
+      </c>
+      <c r="Z333">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Billetes y monedas en circulación 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
   <si>
     <t>Serie</t>
   </si>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z333"/>
+  <dimension ref="A1:Z334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22259,6 +22262,65 @@
         <v>72</v>
       </c>
     </row>
+    <row r="334" spans="1:26">
+      <c r="A334" t="s">
+        <v>358</v>
+      </c>
+      <c r="B334">
+        <v>18008732</v>
+      </c>
+      <c r="C334">
+        <v>9463850</v>
+      </c>
+      <c r="D334">
+        <v>7120688</v>
+      </c>
+      <c r="E334">
+        <v>817393</v>
+      </c>
+      <c r="F334">
+        <v>249315</v>
+      </c>
+      <c r="G334">
+        <v>352529</v>
+      </c>
+      <c r="H334">
+        <v>4706</v>
+      </c>
+      <c r="L334">
+        <v>251</v>
+      </c>
+      <c r="M334">
+        <v>533661</v>
+      </c>
+      <c r="N334">
+        <v>349</v>
+      </c>
+      <c r="O334">
+        <v>99</v>
+      </c>
+      <c r="P334">
+        <v>254690</v>
+      </c>
+      <c r="Q334">
+        <v>167521</v>
+      </c>
+      <c r="R334">
+        <v>32671</v>
+      </c>
+      <c r="S334">
+        <v>62856</v>
+      </c>
+      <c r="T334">
+        <v>10712</v>
+      </c>
+      <c r="U334">
+        <v>4691</v>
+      </c>
+      <c r="Z334">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
